--- a/results/trace.xlsx
+++ b/results/trace.xlsx
@@ -88,10 +88,10 @@
     <t>M1-&gt;M2</t>
   </si>
   <si>
+    <t>M3</t>
+  </si>
+  <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>M3</t>
   </si>
   <si>
     <t>M3-&gt;M1</t>
@@ -597,7 +597,7 @@
         <v>30</v>
       </c>
       <c r="F5">
-        <v>2.497388159546499</v>
+        <v>3.607996782156957</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -617,10 +617,10 @@
         <v>31</v>
       </c>
       <c r="F6">
-        <v>2.497388159546499</v>
+        <v>3.607996782156957</v>
       </c>
       <c r="I6">
-        <v>1.240697716423126</v>
+        <v>1.668701124354598</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -640,7 +640,7 @@
         <v>29</v>
       </c>
       <c r="F7">
-        <v>2.497388159546499</v>
+        <v>3.607996782156957</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -648,13 +648,13 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -663,24 +663,24 @@
         <v>28</v>
       </c>
       <c r="F8">
-        <v>3.738085875969624</v>
+        <v>4</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -689,7 +689,7 @@
         <v>29</v>
       </c>
       <c r="F9">
-        <v>3.738085875969624</v>
+        <v>4</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -697,13 +697,13 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -712,24 +712,24 @@
         <v>28</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>5.276697906511554</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
@@ -738,7 +738,7 @@
         <v>29</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>5.276697906511554</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>30</v>
       </c>
       <c r="F12">
-        <v>5.38273722185208</v>
+        <v>6.702257725566692</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -781,30 +781,36 @@
         <v>31</v>
       </c>
       <c r="F13">
-        <v>5.38273722185208</v>
+        <v>6.702257725566692</v>
       </c>
       <c r="I13">
-        <v>1.672460823119295</v>
+        <v>1.7191080394563</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
         <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F14">
-        <v>6.185150365070152</v>
+        <v>8.421365765022992</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,157 +821,151 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F15">
-        <v>6.185150365070152</v>
-      </c>
-      <c r="I15">
-        <v>1.434679070691841</v>
+        <v>9.457171722217414</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F16">
-        <v>7.055198044971375</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16" t="s">
-        <v>19</v>
+        <v>9.457171722217414</v>
+      </c>
+      <c r="I16">
+        <v>1.690519551256694</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F17">
-        <v>7.619829435761993</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17" t="s">
-        <v>20</v>
+        <v>10.91628103788027</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F18">
-        <v>7.619829435761993</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
+        <v>10.91628103788027</v>
+      </c>
+      <c r="I18">
+        <v>0.719117402088626</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F19">
-        <v>8.220854190739834</v>
+        <v>10.91628103788027</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F20">
-        <v>8.220854190739834</v>
-      </c>
-      <c r="I20">
-        <v>0.9885317110951787</v>
+        <v>11.14769127347411</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E21" t="s">
         <v>29</v>
       </c>
       <c r="F21">
-        <v>8.220854190739834</v>
+        <v>11.14769127347411</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -988,7 +988,7 @@
         <v>28</v>
       </c>
       <c r="F22">
-        <v>9.209385901835013</v>
+        <v>11.63539843996889</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1014,7 +1014,7 @@
         <v>30</v>
       </c>
       <c r="F23">
-        <v>10.97326315300164</v>
+        <v>14.54747669087936</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1028,7 +1028,7 @@
         <v>32</v>
       </c>
       <c r="F24">
-        <v>10.97326315300164</v>
+        <v>14.54747669087936</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1048,7 +1048,7 @@
         <v>29</v>
       </c>
       <c r="F25">
-        <v>10.97326315300164</v>
+        <v>14.54747669087936</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E26" t="s">
         <v>30</v>
       </c>
       <c r="F26">
-        <v>12.31465919648237</v>
+        <v>14.58431033061374</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1085,7 +1085,7 @@
         <v>32</v>
       </c>
       <c r="F27">
-        <v>12.31465919648237</v>
+        <v>14.58431033061374</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1105,7 +1105,7 @@
         <v>30</v>
       </c>
       <c r="F28">
-        <v>20.50889236677717</v>
+        <v>17.05990858031197</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1119,7 +1119,7 @@
         <v>32</v>
       </c>
       <c r="F29">
-        <v>20.50889236677717</v>
+        <v>17.05990858031197</v>
       </c>
     </row>
   </sheetData>

--- a/results/trace.xlsx
+++ b/results/trace.xlsx
@@ -73,10 +73,10 @@
     <t>O31</t>
   </si>
   <si>
+    <t>O32</t>
+  </si>
+  <si>
     <t>O22</t>
-  </si>
-  <si>
-    <t>O32</t>
   </si>
   <si>
     <t>O13</t>
@@ -597,7 +597,7 @@
         <v>30</v>
       </c>
       <c r="F5">
-        <v>3.607996782156957</v>
+        <v>2.832097849304165</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -617,10 +617,10 @@
         <v>31</v>
       </c>
       <c r="F6">
-        <v>3.607996782156957</v>
+        <v>2.832097849304165</v>
       </c>
       <c r="I6">
-        <v>1.668701124354598</v>
+        <v>1.652861309360493</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -640,7 +640,7 @@
         <v>29</v>
       </c>
       <c r="F7">
-        <v>3.607996782156957</v>
+        <v>2.832097849304165</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>28</v>
       </c>
       <c r="F10">
-        <v>5.276697906511554</v>
+        <v>4.484959158664658</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -738,7 +738,7 @@
         <v>29</v>
       </c>
       <c r="F11">
-        <v>5.276697906511554</v>
+        <v>4.484959158664658</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -746,65 +746,65 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
         <v>30</v>
       </c>
       <c r="F12">
-        <v>6.702257725566692</v>
+        <v>4.688850415722873</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
         <v>31</v>
       </c>
       <c r="F13">
-        <v>6.702257725566692</v>
+        <v>4.688850415722873</v>
       </c>
       <c r="I13">
-        <v>1.7191080394563</v>
+        <v>1.114098468989024</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s">
         <v>28</v>
       </c>
       <c r="F14">
-        <v>8.421365765022992</v>
+        <v>5.802948884711897</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -815,157 +815,157 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s">
         <v>30</v>
       </c>
       <c r="F15">
-        <v>9.457171722217414</v>
+        <v>5.875434399381786</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
         <v>31</v>
       </c>
       <c r="F16">
-        <v>9.457171722217414</v>
+        <v>5.875434399381786</v>
       </c>
       <c r="I16">
-        <v>1.690519551256694</v>
+        <v>1.425941398021338</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17">
-        <v>10.91628103788027</v>
+        <v>5.875434399381786</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F18">
-        <v>10.91628103788027</v>
-      </c>
-      <c r="I18">
-        <v>0.719117402088626</v>
+        <v>7.301375797403123</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F19">
-        <v>10.91628103788027</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
+        <v>8.40947481176298</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F20">
-        <v>11.14769127347411</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20" t="s">
-        <v>20</v>
+        <v>8.40947481176298</v>
+      </c>
+      <c r="I20">
+        <v>0.4795785305598544</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E21" t="s">
         <v>29</v>
       </c>
       <c r="F21">
-        <v>11.14769127347411</v>
+        <v>8.40947481176298</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -988,7 +988,7 @@
         <v>28</v>
       </c>
       <c r="F22">
-        <v>11.63539843996889</v>
+        <v>8.889053342322834</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1005,7 +1005,7 @@
         <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
@@ -1014,7 +1014,7 @@
         <v>30</v>
       </c>
       <c r="F23">
-        <v>14.54747669087936</v>
+        <v>9.175820071286179</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1028,7 +1028,7 @@
         <v>32</v>
       </c>
       <c r="F24">
-        <v>14.54747669087936</v>
+        <v>9.175820071286179</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1048,7 +1048,7 @@
         <v>29</v>
       </c>
       <c r="F25">
-        <v>14.54747669087936</v>
+        <v>9.175820071286179</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1056,70 +1056,70 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E26" t="s">
         <v>30</v>
       </c>
       <c r="F26">
-        <v>14.58431033061374</v>
+        <v>10.74386008178479</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E27" t="s">
         <v>32</v>
       </c>
       <c r="F27">
-        <v>14.58431033061374</v>
+        <v>10.74386008178479</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E28" t="s">
         <v>30</v>
       </c>
       <c r="F28">
-        <v>17.05990858031197</v>
+        <v>13.98484414715076</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E29" t="s">
         <v>32</v>
       </c>
       <c r="F29">
-        <v>17.05990858031197</v>
+        <v>13.98484414715076</v>
       </c>
     </row>
   </sheetData>

--- a/results/trace.xlsx
+++ b/results/trace.xlsx
@@ -73,31 +73,31 @@
     <t>O31</t>
   </si>
   <si>
+    <t>O22</t>
+  </si>
+  <si>
+    <t>O13</t>
+  </si>
+  <si>
     <t>O32</t>
   </si>
   <si>
-    <t>O22</t>
-  </si>
-  <si>
-    <t>O13</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M1-&gt;M2</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>M3</t>
   </si>
   <si>
-    <t>M2</t>
+    <t>M2-&gt;M1</t>
   </si>
   <si>
     <t>M3-&gt;M1</t>
-  </si>
-  <si>
-    <t>M2-&gt;M1</t>
   </si>
   <si>
     <t>queued</t>
@@ -597,7 +597,7 @@
         <v>30</v>
       </c>
       <c r="F5">
-        <v>2.832097849304165</v>
+        <v>2.24024912597814</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -617,10 +617,10 @@
         <v>31</v>
       </c>
       <c r="F6">
-        <v>2.832097849304165</v>
+        <v>2.24024912597814</v>
       </c>
       <c r="I6">
-        <v>1.652861309360493</v>
+        <v>1.68558744985206</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -640,7 +640,7 @@
         <v>29</v>
       </c>
       <c r="F7">
-        <v>2.832097849304165</v>
+        <v>2.24024912597814</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -648,13 +648,13 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -663,24 +663,24 @@
         <v>28</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>3.9258365758302</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -689,7 +689,7 @@
         <v>29</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>3.9258365758302</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -697,13 +697,13 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -712,24 +712,24 @@
         <v>28</v>
       </c>
       <c r="F10">
-        <v>4.484959158664658</v>
+        <v>4</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
@@ -738,7 +738,7 @@
         <v>29</v>
       </c>
       <c r="F11">
-        <v>4.484959158664658</v>
+        <v>4</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -746,65 +746,65 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
         <v>30</v>
       </c>
       <c r="F12">
-        <v>4.688850415722873</v>
+        <v>4.874183958099014</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
         <v>31</v>
       </c>
       <c r="F13">
-        <v>4.688850415722873</v>
+        <v>4.874183958099014</v>
       </c>
       <c r="I13">
-        <v>1.114098468989024</v>
+        <v>1.650559859790064</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
         <v>28</v>
       </c>
       <c r="F14">
-        <v>5.802948884711897</v>
+        <v>6.524743817889078</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -815,65 +815,65 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
         <v>30</v>
       </c>
       <c r="F15">
-        <v>5.875434399381786</v>
+        <v>8.307175030790283</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
         <v>31</v>
       </c>
       <c r="F16">
-        <v>5.875434399381786</v>
+        <v>8.307175030790283</v>
       </c>
       <c r="I16">
-        <v>1.425941398021338</v>
+        <v>0.8359685364774666</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
         <v>29</v>
       </c>
       <c r="F17">
-        <v>5.875434399381786</v>
+        <v>8.307175030790283</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -881,22 +881,22 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E18" t="s">
         <v>28</v>
       </c>
       <c r="F18">
-        <v>7.301375797403123</v>
+        <v>9.143143567267749</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -913,16 +913,19 @@
         <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F19">
-        <v>8.40947481176298</v>
+        <v>9.143143567267749</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -933,68 +936,50 @@
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F20">
-        <v>8.40947481176298</v>
-      </c>
-      <c r="I20">
-        <v>0.4795785305598544</v>
+        <v>10.73870467423091</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F21">
-        <v>8.40947481176298</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
+        <v>10.73870467423091</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F22">
-        <v>8.889053342322834</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22" t="s">
-        <v>21</v>
+        <v>11.70184067028539</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1005,16 +990,19 @@
         <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F23">
-        <v>9.175820071286179</v>
+        <v>11.70184067028539</v>
+      </c>
+      <c r="I23">
+        <v>1.217895911358374</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1024,19 +1012,31 @@
       <c r="B24" t="s">
         <v>14</v>
       </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F24">
-        <v>9.175820071286179</v>
+        <v>12.91973658164377</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
         <v>21</v>
@@ -1048,7 +1048,7 @@
         <v>29</v>
       </c>
       <c r="F25">
-        <v>9.175820071286179</v>
+        <v>12.91973658164377</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1056,70 +1056,70 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E26" t="s">
         <v>30</v>
       </c>
       <c r="F26">
-        <v>10.74386008178479</v>
+        <v>13.05627022569555</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E27" t="s">
         <v>32</v>
       </c>
       <c r="F27">
-        <v>10.74386008178479</v>
+        <v>13.05627022569555</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E28" t="s">
         <v>30</v>
       </c>
       <c r="F28">
-        <v>13.98484414715076</v>
+        <v>16.29315790433309</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E29" t="s">
         <v>32</v>
       </c>
       <c r="F29">
-        <v>13.98484414715076</v>
+        <v>16.29315790433309</v>
       </c>
     </row>
   </sheetData>

--- a/results/trace.xlsx
+++ b/results/trace.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="42">
   <si>
     <t>part</t>
   </si>
@@ -73,33 +73,33 @@
     <t>O31</t>
   </si>
   <si>
+    <t>O32</t>
+  </si>
+  <si>
+    <t>O13</t>
+  </si>
+  <si>
     <t>O22</t>
   </si>
   <si>
-    <t>O13</t>
-  </si>
-  <si>
-    <t>O32</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M1-&gt;M2</t>
   </si>
   <si>
+    <t>M3</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
-    <t>M3</t>
+    <t>M3-&gt;M1</t>
   </si>
   <si>
     <t>M2-&gt;M1</t>
   </si>
   <si>
-    <t>M3-&gt;M1</t>
-  </si>
-  <si>
     <t>queued</t>
   </si>
   <si>
@@ -113,6 +113,33 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>O11,O21</t>
+  </si>
+  <si>
+    <t>O12,O12</t>
+  </si>
+  <si>
+    <t>O21,O32</t>
+  </si>
+  <si>
+    <t>O21,O32,O32</t>
+  </si>
+  <si>
+    <t>O21,O32,O32,O13</t>
+  </si>
+  <si>
+    <t>O21,O32,O32,O13,O13</t>
+  </si>
+  <si>
+    <t>O13,O22</t>
+  </si>
+  <si>
+    <t>O22,O22</t>
+  </si>
+  <si>
+    <t>O32,O32,O13,O13,O13</t>
   </si>
 </sst>
 </file>
@@ -470,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -545,59 +572,65 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F5">
-        <v>2.24024912597814</v>
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -608,53 +641,50 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6">
-        <v>2.24024912597814</v>
-      </c>
-      <c r="I6">
-        <v>1.68558744985206</v>
+        <v>2.927954835211036</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F7">
-        <v>2.24024912597814</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
+        <v>2.927954835211036</v>
+      </c>
+      <c r="I7">
+        <v>1.448128919900544</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -663,24 +693,24 @@
         <v>28</v>
       </c>
       <c r="F8">
-        <v>3.9258365758302</v>
+        <v>4</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -689,21 +719,21 @@
         <v>29</v>
       </c>
       <c r="F9">
-        <v>3.9258365758302</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -712,24 +742,24 @@
         <v>28</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>4.37608375511158</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
@@ -738,79 +768,79 @@
         <v>29</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>4.37608375511158</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12">
-        <v>4.874183958099014</v>
+        <v>4.394560076740737</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F13">
-        <v>4.874183958099014</v>
-      </c>
-      <c r="I13">
-        <v>1.650559859790064</v>
+        <v>8.445308909360277</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F14">
-        <v>6.524743817889078</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s">
-        <v>19</v>
+        <v>8.445308909360277</v>
+      </c>
+      <c r="I14">
+        <v>1.676699487422911</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -824,13 +854,13 @@
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
         <v>30</v>
       </c>
       <c r="F15">
-        <v>8.307175030790283</v>
+        <v>10.07806748021044</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,88 +874,91 @@
         <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
         <v>31</v>
       </c>
       <c r="F16">
-        <v>8.307175030790283</v>
+        <v>10.07806748021044</v>
       </c>
       <c r="I16">
-        <v>0.8359685364774666</v>
+        <v>1.178917991932281</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17">
-        <v>8.307175030790283</v>
+        <v>10.12200839678319</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F18">
-        <v>9.143143567267749</v>
+        <v>10.12200839678319</v>
       </c>
       <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F19">
-        <v>9.143143567267749</v>
+        <v>10.33748847706512</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="H19" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -942,10 +975,16 @@
         <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F20">
-        <v>10.73870467423091</v>
+        <v>11.18684268379398</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -955,103 +994,118 @@
       <c r="B21" t="s">
         <v>12</v>
       </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F21">
-        <v>10.73870467423091</v>
+        <v>11.25698547214272</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E22" t="s">
         <v>30</v>
       </c>
       <c r="F22">
-        <v>11.70184067028539</v>
+        <v>13.46709489636549</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23" t="s">
         <v>31</v>
       </c>
       <c r="F23">
-        <v>11.70184067028539</v>
+        <v>13.46709489636549</v>
       </c>
       <c r="I23">
-        <v>1.217895911358374</v>
+        <v>1.539223922329885</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
         <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E24" t="s">
         <v>28</v>
       </c>
       <c r="F24">
-        <v>12.91973658164377</v>
+        <v>14.89755703811408</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
         <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F25">
-        <v>12.91973658164377</v>
+        <v>15.00631881869537</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="H25" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1062,30 +1116,45 @@
         <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F26">
-        <v>13.05627022569555</v>
+        <v>15.00631881869537</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" t="s">
+        <v>22</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F27">
-        <v>13.05627022569555</v>
+        <v>15.89599656350498</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="H27" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1096,16 +1165,19 @@
         <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F28">
-        <v>16.29315790433309</v>
+        <v>15.89599656350498</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1115,11 +1187,122 @@
       <c r="B29" t="s">
         <v>14</v>
       </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
       <c r="E29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29">
+        <v>19.58328256815528</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s">
         <v>32</v>
       </c>
-      <c r="F29">
-        <v>16.29315790433309</v>
+      <c r="F30">
+        <v>19.58328256815528</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31">
+        <v>19.58328256815528</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32">
+        <v>20.46406961737572</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33">
+        <v>20.46406961737572</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34">
+        <v>22.73259958512488</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35">
+        <v>22.73259958512488</v>
       </c>
     </row>
   </sheetData>

--- a/results/trace.xlsx
+++ b/results/trace.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="37">
   <si>
     <t>part</t>
   </si>
@@ -73,15 +73,18 @@
     <t>O31</t>
   </si>
   <si>
+    <t>O13</t>
+  </si>
+  <si>
     <t>O32</t>
   </si>
   <si>
-    <t>O13</t>
-  </si>
-  <si>
     <t>O22</t>
   </si>
   <si>
+    <t>DONE</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -94,12 +97,12 @@
     <t>M2</t>
   </si>
   <si>
+    <t>M1-&gt;M1</t>
+  </si>
+  <si>
     <t>M3-&gt;M1</t>
   </si>
   <si>
-    <t>M2-&gt;M1</t>
-  </si>
-  <si>
     <t>queued</t>
   </si>
   <si>
@@ -118,28 +121,10 @@
     <t>O11,O21</t>
   </si>
   <si>
-    <t>O12,O12</t>
-  </si>
-  <si>
-    <t>O21,O32</t>
-  </si>
-  <si>
-    <t>O21,O32,O32</t>
-  </si>
-  <si>
-    <t>O21,O32,O32,O13</t>
-  </si>
-  <si>
-    <t>O21,O32,O32,O13,O13</t>
-  </si>
-  <si>
-    <t>O13,O22</t>
-  </si>
-  <si>
-    <t>O22,O22</t>
-  </si>
-  <si>
-    <t>O32,O32,O13,O13,O13</t>
+    <t>O13,O21,O13</t>
+  </si>
+  <si>
+    <t>DONE,O21,DONE,O32</t>
   </si>
 </sst>
 </file>
@@ -497,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,10 +528,10 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -569,10 +554,10 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -580,57 +565,51 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5" t="s">
-        <v>33</v>
+        <v>2.927954835211036</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -641,17 +620,20 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F6">
         <v>2.927954835211036</v>
       </c>
+      <c r="I6">
+        <v>1.448128919900544</v>
+      </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
@@ -667,13 +649,13 @@
         <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7">
         <v>2.927954835211036</v>
       </c>
-      <c r="I7">
-        <v>1.448128919900544</v>
+      <c r="G7">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -687,10 +669,10 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8">
         <v>4</v>
@@ -713,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -736,10 +718,10 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F10">
         <v>4.37608375511158</v>
@@ -762,10 +744,10 @@
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F11">
         <v>4.37608375511158</v>
@@ -785,62 +767,62 @@
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F12">
-        <v>4.394560076740737</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12" t="s">
-        <v>34</v>
+        <v>7.816638973643373</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F13">
-        <v>8.445308909360277</v>
+        <v>7.816638973643373</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F14">
-        <v>8.445308909360277</v>
-      </c>
-      <c r="I14">
-        <v>1.676699487422911</v>
+        <v>7.816638973643373</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -851,39 +833,39 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
         <v>30</v>
       </c>
       <c r="F15">
-        <v>10.07806748021044</v>
+        <v>7.816638973643373</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
         <v>31</v>
       </c>
       <c r="F16">
-        <v>10.07806748021044</v>
-      </c>
-      <c r="I16">
-        <v>1.178917991932281</v>
+        <v>8.445308909360277</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -894,71 +876,62 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F17">
-        <v>10.12200839678319</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="H17" t="s">
-        <v>35</v>
+        <v>8.445308909360277</v>
+      </c>
+      <c r="I17">
+        <v>1.892179567704845</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F18">
-        <v>10.12200839678319</v>
+        <v>8.445308909360277</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F19">
-        <v>10.33748847706512</v>
-      </c>
-      <c r="G19">
-        <v>3</v>
-      </c>
-      <c r="H19" t="s">
-        <v>36</v>
+        <v>10.07806748021044</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -968,144 +941,105 @@
       <c r="B20" t="s">
         <v>12</v>
       </c>
-      <c r="C20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F20">
-        <v>11.18684268379398</v>
-      </c>
-      <c r="G20">
-        <v>4</v>
-      </c>
-      <c r="H20" t="s">
-        <v>37</v>
+        <v>10.07806748021044</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F21">
-        <v>11.25698547214272</v>
+        <v>10.33748847706512</v>
       </c>
       <c r="G21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F22">
-        <v>13.46709489636549</v>
+        <v>11.89260388919098</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F23">
-        <v>13.46709489636549</v>
-      </c>
-      <c r="I23">
-        <v>1.539223922329885</v>
+        <v>11.89260388919098</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F24">
-        <v>14.89755703811408</v>
-      </c>
-      <c r="G24">
-        <v>2</v>
-      </c>
-      <c r="H24" t="s">
-        <v>39</v>
+        <v>12.33333100883774</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F25">
-        <v>15.00631881869537</v>
-      </c>
-      <c r="G25">
-        <v>2</v>
-      </c>
-      <c r="H25" t="s">
-        <v>40</v>
+        <v>12.33333100883774</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1116,125 +1050,134 @@
         <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F26">
-        <v>15.00631881869537</v>
+        <v>12.33333100883774</v>
       </c>
       <c r="G26">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E27" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F27">
-        <v>15.89599656350498</v>
-      </c>
-      <c r="G27">
-        <v>5</v>
-      </c>
-      <c r="H27" t="s">
-        <v>41</v>
+        <v>15.60526901779658</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F28">
-        <v>15.89599656350498</v>
-      </c>
-      <c r="G28">
-        <v>5</v>
+        <v>15.60526901779658</v>
+      </c>
+      <c r="I28">
+        <v>1.70705189974938</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29" t="s">
         <v>30</v>
       </c>
       <c r="F29">
-        <v>19.58328256815528</v>
+        <v>15.60526901779658</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" t="s">
+        <v>26</v>
       </c>
       <c r="E30" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F30">
-        <v>19.58328256815528</v>
+        <v>17.31232091754596</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D31" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F31">
-        <v>19.58328256815528</v>
+        <v>17.31232091754596</v>
       </c>
       <c r="G31">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1248,61 +1191,948 @@
         <v>21</v>
       </c>
       <c r="D32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32">
+        <v>20.73601542556287</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33">
+        <v>20.73601542556287</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34">
+        <v>22.08052805670794</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35">
+        <v>22.08052805670794</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" t="s">
         <v>25</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E37" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39">
+        <v>4</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" t="s">
         <v>30</v>
       </c>
-      <c r="F32">
-        <v>20.46406961737572</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45">
+        <v>2.927954835211036</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" t="s">
         <v>32</v>
       </c>
-      <c r="F33">
-        <v>20.46406961737572</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="F46">
+        <v>2.927954835211036</v>
+      </c>
+      <c r="I46">
+        <v>1.448128919900544</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" t="s">
+        <v>30</v>
+      </c>
+      <c r="F47">
+        <v>2.927954835211036</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48">
+        <v>4</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" t="s">
+        <v>30</v>
+      </c>
+      <c r="F49">
+        <v>4</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50">
+        <v>4.37608375511158</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" t="s">
+        <v>30</v>
+      </c>
+      <c r="F51">
+        <v>4.37608375511158</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" t="s">
+        <v>31</v>
+      </c>
+      <c r="F52">
+        <v>7.816638973643373</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53" t="s">
+        <v>32</v>
+      </c>
+      <c r="F53">
+        <v>7.816638973643373</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" t="s">
+        <v>29</v>
+      </c>
+      <c r="F54">
+        <v>7.816638973643373</v>
+      </c>
+      <c r="G54">
+        <v>3</v>
+      </c>
+      <c r="H54" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" t="s">
+        <v>23</v>
+      </c>
+      <c r="E55" t="s">
+        <v>30</v>
+      </c>
+      <c r="F55">
+        <v>7.816638973643373</v>
+      </c>
+      <c r="G55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" t="s">
+        <v>31</v>
+      </c>
+      <c r="F56">
+        <v>8.445308909360277</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" t="s">
         <v>20</v>
       </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="D57" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57" t="s">
+        <v>32</v>
+      </c>
+      <c r="F57">
+        <v>8.445308909360277</v>
+      </c>
+      <c r="I57">
+        <v>1.892179567704845</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" t="s">
         <v>30</v>
       </c>
-      <c r="F34">
-        <v>22.73259958512488</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="F58">
+        <v>8.445308909360277</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" t="s">
+        <v>31</v>
+      </c>
+      <c r="F59">
+        <v>10.07806748021044</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" t="s">
+        <v>33</v>
+      </c>
+      <c r="F60">
+        <v>10.07806748021044</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" t="s">
+        <v>23</v>
+      </c>
+      <c r="E61" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61">
+        <v>10.33748847706512</v>
+      </c>
+      <c r="G61">
+        <v>4</v>
+      </c>
+      <c r="H61" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" t="s">
+        <v>31</v>
+      </c>
+      <c r="F62">
+        <v>11.89260388919098</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" t="s">
+        <v>33</v>
+      </c>
+      <c r="F63">
+        <v>11.89260388919098</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" t="s">
+        <v>31</v>
+      </c>
+      <c r="F64">
+        <v>12.33333100883774</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" t="s">
+        <v>33</v>
+      </c>
+      <c r="F65">
+        <v>12.33333100883774</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" t="s">
+        <v>30</v>
+      </c>
+      <c r="F66">
+        <v>12.33333100883774</v>
+      </c>
+      <c r="G66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67" t="s">
+        <v>31</v>
+      </c>
+      <c r="F67">
+        <v>15.60526901779658</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" t="s">
+        <v>24</v>
+      </c>
+      <c r="E68" t="s">
         <v>32</v>
       </c>
-      <c r="F35">
-        <v>22.73259958512488</v>
+      <c r="F68">
+        <v>15.60526901779658</v>
+      </c>
+      <c r="I68">
+        <v>1.70705189974938</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" t="s">
+        <v>23</v>
+      </c>
+      <c r="E69" t="s">
+        <v>30</v>
+      </c>
+      <c r="F69">
+        <v>15.60526901779658</v>
+      </c>
+      <c r="G69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" t="s">
+        <v>26</v>
+      </c>
+      <c r="E70" t="s">
+        <v>29</v>
+      </c>
+      <c r="F70">
+        <v>17.31232091754596</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" t="s">
+        <v>26</v>
+      </c>
+      <c r="E71" t="s">
+        <v>30</v>
+      </c>
+      <c r="F71">
+        <v>17.31232091754596</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" t="s">
+        <v>23</v>
+      </c>
+      <c r="E72" t="s">
+        <v>31</v>
+      </c>
+      <c r="F72">
+        <v>20.73601542556287</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" t="s">
+        <v>33</v>
+      </c>
+      <c r="F73">
+        <v>20.73601542556287</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" t="s">
+        <v>26</v>
+      </c>
+      <c r="E74" t="s">
+        <v>31</v>
+      </c>
+      <c r="F74">
+        <v>22.08052805670794</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" t="s">
+        <v>33</v>
+      </c>
+      <c r="F75">
+        <v>22.08052805670794</v>
       </c>
     </row>
   </sheetData>

--- a/results/trace.xlsx
+++ b/results/trace.xlsx
@@ -796,7 +796,7 @@
         <v>7.816638973643373</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -813,39 +813,33 @@
         <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14">
         <v>7.816638973643373</v>
       </c>
       <c r="G14">
-        <v>3</v>
-      </c>
-      <c r="H14" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F15">
-        <v>7.816638973643373</v>
-      </c>
-      <c r="G15">
-        <v>3</v>
+        <v>8.445308909360277</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -856,16 +850,19 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F16">
         <v>8.445308909360277</v>
+      </c>
+      <c r="I16">
+        <v>1.892179567704845</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -879,39 +876,42 @@
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F17">
         <v>8.445308909360277</v>
       </c>
-      <c r="I17">
-        <v>1.892179567704845</v>
+      <c r="G17">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F18">
-        <v>8.445308909360277</v>
+        <v>8.816638973643373</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="H18" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1683,7 +1683,7 @@
         <v>7.816638973643373</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -1700,39 +1700,33 @@
         <v>23</v>
       </c>
       <c r="E54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F54">
         <v>7.816638973643373</v>
       </c>
       <c r="G54">
-        <v>3</v>
-      </c>
-      <c r="H54" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F55">
-        <v>7.816638973643373</v>
-      </c>
-      <c r="G55">
-        <v>3</v>
+        <v>8.445308909360277</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -1743,16 +1737,19 @@
         <v>14</v>
       </c>
       <c r="C56" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D56" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E56" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F56">
         <v>8.445308909360277</v>
+      </c>
+      <c r="I56">
+        <v>1.892179567704845</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -1766,39 +1763,42 @@
         <v>20</v>
       </c>
       <c r="D57" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E57" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F57">
         <v>8.445308909360277</v>
       </c>
-      <c r="I57">
-        <v>1.892179567704845</v>
+      <c r="G57">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D58" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F58">
-        <v>8.445308909360277</v>
+        <v>8.816638973643373</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="H58" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:9">
